--- a/Documents/Diagram Metadata Reports/BRIDG5.3Beta-20190205/BRIDG5.3Beta-20190204-CanineDataCommonsStarterModel.xlsx
+++ b/Documents/Diagram Metadata Reports/BRIDG5.3Beta-20190205/BRIDG5.3Beta-20190204-CanineDataCommonsStarterModel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wverhoef\Documents\BRIDG\BRIDG R5.3\EA Diagram Report Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie Evans\Documents\GitHub\bridg-model\Documents\Diagram Metadata Reports\BRIDG5.3Beta-20190205\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878C2D90-BD57-4A5F-97B5-9FC5714777AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram_Metadata_Report" sheetId="1" r:id="rId1"/>
@@ -162,9 +163,6 @@
     <t>BRIDGmodel.nci.nih.gov</t>
   </si>
   <si>
-    <t>Canine Data Commons Starter Model</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -2320,11 +2318,14 @@
 _x000D_
 NOTE(S):</t>
   </si>
+  <si>
+    <t>Animal View</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2492,6 +2493,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2527,6 +2545,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2702,30 +2737,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:A152"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="4" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="85.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" style="4" customWidth="1"/>
+    <col min="3" max="5" width="9.1328125" style="4"/>
+    <col min="6" max="6" width="85.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.5" x14ac:dyDescent="0.75">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2745,80 +2782,80 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A5" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="236" x14ac:dyDescent="0.75">
+      <c r="A7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="270" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -2827,160 +2864,160 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="265.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="270" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A12" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
+    <row r="13" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A13" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A14" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A16" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
@@ -2989,460 +3026,460 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="19" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A19" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="20" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A20" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="21" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A21" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="22" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A22" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="23" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A23" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="24" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A24" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="25" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A25" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="26" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A26" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="27" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A27" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="28" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A28" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="29" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A29" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A30" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="5" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A31" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="5" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A32" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="5" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A33" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="5" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A34" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="5" t="s">
+    </row>
+    <row r="35" spans="1:6" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A35" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A36" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="5" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A37" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="5" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A38" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A39" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="5" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A40" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="41" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A41" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>10</v>
@@ -3451,109 +3488,109 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>22</v>
+    <row r="42" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="F42" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>22</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A43" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>22</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A44" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>22</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A45" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="46" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A46" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>22</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="339.25" x14ac:dyDescent="0.75">
+      <c r="A47" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>12</v>
@@ -3562,1730 +3599,1730 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>22</v>
+    <row r="48" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A48" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>22</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A49" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="50" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A50" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="51" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A51" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="345" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>22</v>
+    </row>
+    <row r="52" spans="1:6" ht="324.5" x14ac:dyDescent="0.75">
+      <c r="A52" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="5" t="s">
+    </row>
+    <row r="53" spans="1:6" ht="368.75" x14ac:dyDescent="0.75">
+      <c r="A53" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="375" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B53" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F53" s="5" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A54" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="5" t="s">
+    </row>
+    <row r="55" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A55" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="5" t="s">
+    </row>
+    <row r="56" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A56" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="5" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A57" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="5" t="s">
+    </row>
+    <row r="58" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A58" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="5" t="s">
+    </row>
+    <row r="59" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A59" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="5" t="s">
+    </row>
+    <row r="60" spans="1:6" ht="295" x14ac:dyDescent="0.75">
+      <c r="A60" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="5" t="s">
+    </row>
+    <row r="61" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A61" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="5" t="s">
+    </row>
+    <row r="62" spans="1:6" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A62" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="5" t="s">
+    </row>
+    <row r="63" spans="1:6" ht="309.75" x14ac:dyDescent="0.75">
+      <c r="A63" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="330" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="D63" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="5" t="s">
+    </row>
+    <row r="64" spans="1:6" ht="280.25" x14ac:dyDescent="0.75">
+      <c r="A64" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="5" t="s">
+    </row>
+    <row r="65" spans="1:6" ht="236" x14ac:dyDescent="0.75">
+      <c r="A65" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="5" t="s">
+    </row>
+    <row r="66" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A66" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="5" t="s">
+    </row>
+    <row r="67" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A67" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F67" s="5" t="s">
+    </row>
+    <row r="68" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A68" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="5" t="s">
+    <row r="69" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A69" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="D69" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="5" t="s">
+    </row>
+    <row r="70" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A70" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="5" t="s">
+      <c r="D70" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="5" t="s">
+    </row>
+    <row r="71" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A71" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="5" t="s">
+    </row>
+    <row r="72" spans="1:6" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A72" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="5" t="s">
+      <c r="D72" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" s="5" t="s">
+    </row>
+    <row r="73" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A73" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="5" t="s">
+      <c r="D73" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="5" t="s">
+    </row>
+    <row r="74" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A74" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="5" t="s">
+      <c r="D74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="5" t="s">
+    </row>
+    <row r="75" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A75" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="5" t="s">
+      <c r="D75" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="5" t="s">
+    </row>
+    <row r="76" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A76" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="5" t="s">
+      <c r="D76" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="5" t="s">
+    </row>
+    <row r="77" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A77" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="D77" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="5" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A78" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F78" s="5" t="s">
+    </row>
+    <row r="79" spans="1:6" ht="250.75" x14ac:dyDescent="0.75">
+      <c r="A79" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="270" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="D79" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="5" t="s">
+    </row>
+    <row r="80" spans="1:6" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A80" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="5" t="s">
+      <c r="D80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="5" t="s">
+    </row>
+    <row r="81" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A81" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="D81" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="5" t="s">
+    </row>
+    <row r="82" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A82" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A83" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F83" s="5" t="s">
+    </row>
+    <row r="84" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A84" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="D84" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="E84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="5" t="s">
+    </row>
+    <row r="85" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A85" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="5" t="s">
+    </row>
+    <row r="86" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A86" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="5" t="s">
+    </row>
+    <row r="87" spans="1:6" ht="354" x14ac:dyDescent="0.75">
+      <c r="A87" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="390" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" s="5" t="s">
+    </row>
+    <row r="88" spans="1:6" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A88" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="5" t="s">
+    </row>
+    <row r="89" spans="1:6" ht="265.5" x14ac:dyDescent="0.75">
+      <c r="A89" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="270" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" s="5" t="s">
+    </row>
+    <row r="90" spans="1:6" ht="383.5" x14ac:dyDescent="0.75">
+      <c r="A90" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="405" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F90" s="5" t="s">
+    </row>
+    <row r="91" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A91" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="5" t="s">
+    </row>
+    <row r="92" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A92" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" s="5" t="s">
+    <row r="93" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A93" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A94" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A95" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A96" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A97" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A98" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A99" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A100" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C95" s="5" t="s">
+      <c r="E100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A101" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A102" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A103" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A104" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A105" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A106" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A107" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="236" x14ac:dyDescent="0.75">
+      <c r="A108" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A109" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A110" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A111" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A112" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A113" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A114" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A115" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A116" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A117" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A118" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="250.75" x14ac:dyDescent="0.75">
+      <c r="A119" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A120" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A121" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A122" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A123" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A124" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A125" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A126" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A127" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A128" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="280.25" x14ac:dyDescent="0.75">
+      <c r="A129" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A130" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A131" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A132" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A133" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A134" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A135" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="E135" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A136" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="177" x14ac:dyDescent="0.75">
+      <c r="A137" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
+      <c r="A138" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F137" s="5" t="s">
+      <c r="E138" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>22</v>
+    <row r="139" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A139" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>14</v>
@@ -5294,20 +5331,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>22</v>
+    <row r="140" spans="1:6" ht="409.5" x14ac:dyDescent="0.75">
+      <c r="A140" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F140" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" ht="265.5" x14ac:dyDescent="0.75">
       <c r="A141" s="5" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>16</v>
@@ -5316,69 +5353,69 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A142" s="5" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C142" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:6" ht="324.5" x14ac:dyDescent="0.75">
       <c r="A143" s="5" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="118" x14ac:dyDescent="0.75">
       <c r="A144" s="5" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="191.75" x14ac:dyDescent="0.75">
       <c r="A145" s="5" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>18</v>
@@ -5387,135 +5424,135 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A146" s="5" t="s">
-        <v>22</v>
+        <v>314</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F146" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A147" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B147" s="5" t="s">
+      <c r="F147" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F147" s="5" t="s">
+    </row>
+    <row r="148" spans="1:6" ht="280.25" x14ac:dyDescent="0.75">
+      <c r="A148" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="315" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C148" s="5" t="s">
+      <c r="D148" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F148" s="5" t="s">
+    </row>
+    <row r="149" spans="1:6" ht="162.25" x14ac:dyDescent="0.75">
+      <c r="A149" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C149" s="5" t="s">
+      <c r="D149" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F149" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F149" s="5" t="s">
+    </row>
+    <row r="150" spans="1:6" ht="221.25" x14ac:dyDescent="0.75">
+      <c r="A150" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C150" s="5" t="s">
+      <c r="D150" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F150" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F150" s="5" t="s">
+    </row>
+    <row r="151" spans="1:6" ht="147.5" x14ac:dyDescent="0.75">
+      <c r="A151" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="150" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C151" s="5" t="s">
+      <c r="D151" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F151" s="5" t="s">
+    </row>
+    <row r="152" spans="1:6" ht="118" x14ac:dyDescent="0.75">
+      <c r="A152" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="C152" s="5" t="s">
+      <c r="D152" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
